--- a/report/Gantt project planner1.xlsx
+++ b/report/Gantt project planner1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F52C9134-93C4-4DFE-AE45-27F1F71D00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC02FE0-3618-4FB8-B5C6-BDF01CEB6C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Implementing Scissors tool</t>
+  </si>
+  <si>
+    <t>Implementing eraser</t>
   </si>
 </sst>
 </file>
@@ -675,12 +678,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="7" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="6" borderId="5" xfId="13" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="3" applyBorder="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -704,87 +788,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="7" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="5" xfId="13" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="3" applyBorder="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="9" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1186,737 +1189,757 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BB21"/>
+  <dimension ref="B1:BB22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9" style="31" customWidth="1"/>
-    <col min="5" max="5" width="7" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="27" width="2.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:54" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="14"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="2:54" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="13"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="17" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="18">
-        <v>1</v>
-      </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="5" t="s">
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="5" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="10" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="3" t="s">
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="29"/>
+      <c r="AL2" s="29"/>
+      <c r="AM2" s="29"/>
+      <c r="AN2" s="29"/>
+      <c r="AO2" s="29"/>
+      <c r="AP2" s="29"/>
     </row>
     <row r="3" spans="2:54" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="14">
         <v>44693</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="14">
         <f>H3+1</f>
         <v>44694</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="14">
         <f t="shared" ref="J3:BB3" si="0">I3+1</f>
         <v>44695</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="14">
         <f t="shared" si="0"/>
         <v>44696</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="14">
         <f t="shared" si="0"/>
         <v>44697</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="14">
         <f t="shared" si="0"/>
         <v>44698</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="14">
         <f t="shared" si="0"/>
         <v>44699</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
         <v>44700</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="14">
         <f t="shared" si="0"/>
         <v>44701</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3" s="14">
         <f t="shared" si="0"/>
         <v>44702</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3" s="14">
         <f t="shared" si="0"/>
         <v>44703</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="14">
         <f t="shared" si="0"/>
         <v>44704</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="14">
         <f t="shared" si="0"/>
         <v>44705</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="14">
         <f t="shared" si="0"/>
         <v>44706</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="14">
         <f t="shared" si="0"/>
         <v>44707</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="14">
         <f t="shared" si="0"/>
         <v>44708</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3" s="14">
         <f t="shared" si="0"/>
         <v>44709</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="14">
         <f t="shared" si="0"/>
         <v>44710</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="14">
         <f t="shared" si="0"/>
         <v>44711</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="14">
         <f t="shared" si="0"/>
         <v>44712</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AB3" s="14">
         <f t="shared" si="0"/>
         <v>44713</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="14">
         <f t="shared" si="0"/>
         <v>44714</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AD3" s="14">
         <f t="shared" si="0"/>
         <v>44715</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="14">
         <f t="shared" si="0"/>
         <v>44716</v>
       </c>
-      <c r="AF3" s="25">
+      <c r="AF3" s="14">
         <f t="shared" si="0"/>
         <v>44717</v>
       </c>
-      <c r="AG3" s="25">
+      <c r="AG3" s="14">
         <f t="shared" si="0"/>
         <v>44718</v>
       </c>
-      <c r="AH3" s="25">
+      <c r="AH3" s="14">
         <f t="shared" si="0"/>
         <v>44719</v>
       </c>
-      <c r="AI3" s="25">
+      <c r="AI3" s="14">
         <f t="shared" si="0"/>
         <v>44720</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AJ3" s="14">
         <f t="shared" si="0"/>
         <v>44721</v>
       </c>
-      <c r="AK3" s="25">
+      <c r="AK3" s="14">
         <f t="shared" si="0"/>
         <v>44722</v>
       </c>
-      <c r="AL3" s="25">
+      <c r="AL3" s="14">
         <f t="shared" si="0"/>
         <v>44723</v>
       </c>
-      <c r="AM3" s="25">
+      <c r="AM3" s="14">
         <f t="shared" si="0"/>
         <v>44724</v>
       </c>
-      <c r="AN3" s="25">
+      <c r="AN3" s="14">
         <f t="shared" si="0"/>
         <v>44725</v>
       </c>
-      <c r="AO3" s="25">
+      <c r="AO3" s="14">
         <f t="shared" si="0"/>
         <v>44726</v>
       </c>
-      <c r="AP3" s="25">
+      <c r="AP3" s="14">
         <f t="shared" si="0"/>
         <v>44727</v>
       </c>
-      <c r="AQ3" s="25">
+      <c r="AQ3" s="14">
         <f t="shared" si="0"/>
         <v>44728</v>
       </c>
-      <c r="AR3" s="25">
+      <c r="AR3" s="14">
         <f t="shared" si="0"/>
         <v>44729</v>
       </c>
-      <c r="AS3" s="25">
+      <c r="AS3" s="14">
         <f t="shared" si="0"/>
         <v>44730</v>
       </c>
-      <c r="AT3" s="25">
+      <c r="AT3" s="14">
         <f t="shared" si="0"/>
         <v>44731</v>
       </c>
-      <c r="AU3" s="25">
+      <c r="AU3" s="14">
         <f t="shared" si="0"/>
         <v>44732</v>
       </c>
-      <c r="AV3" s="25">
+      <c r="AV3" s="14">
         <f t="shared" si="0"/>
         <v>44733</v>
       </c>
-      <c r="AW3" s="25">
+      <c r="AW3" s="14">
         <f t="shared" si="0"/>
         <v>44734</v>
       </c>
-      <c r="AX3" s="25">
+      <c r="AX3" s="14">
         <f t="shared" si="0"/>
         <v>44735</v>
       </c>
-      <c r="AY3" s="25">
+      <c r="AY3" s="14">
         <f t="shared" si="0"/>
         <v>44736</v>
       </c>
-      <c r="AZ3" s="25">
+      <c r="AZ3" s="14">
         <f t="shared" si="0"/>
         <v>44737</v>
       </c>
-      <c r="BA3" s="25">
+      <c r="BA3" s="14">
         <f t="shared" si="0"/>
         <v>44738</v>
       </c>
-      <c r="BB3" s="25">
+      <c r="BB3" s="14">
         <f t="shared" si="0"/>
         <v>44739</v>
       </c>
     </row>
     <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26">
-        <v>1</v>
-      </c>
-      <c r="I4" s="26">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="15">
+        <v>1</v>
+      </c>
+      <c r="I4" s="15">
         <v>2</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="15">
         <v>3</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="15">
         <v>4</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="15">
         <v>5</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="15">
         <v>6</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="15">
         <v>7</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="15">
         <v>8</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="15">
         <v>9</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="15">
         <v>10</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="15">
         <v>11</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="15">
         <v>12</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="15">
         <v>13</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="15">
         <v>14</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="15">
         <v>15</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="15">
         <v>16</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4" s="15">
         <v>17</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="15">
         <v>18</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="Z4" s="15">
         <v>19</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="15">
         <v>20</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AB4" s="15">
         <v>21</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="15">
         <v>22</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="15">
         <v>23</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="15">
         <v>24</v>
       </c>
-      <c r="AF4" s="26">
+      <c r="AF4" s="15">
         <v>25</v>
       </c>
-      <c r="AG4" s="26">
+      <c r="AG4" s="15">
         <v>26</v>
       </c>
-      <c r="AH4" s="26">
+      <c r="AH4" s="15">
         <v>27</v>
       </c>
-      <c r="AI4" s="26">
+      <c r="AI4" s="15">
         <v>28</v>
       </c>
-      <c r="AJ4" s="26">
+      <c r="AJ4" s="15">
         <v>29</v>
       </c>
-      <c r="AK4" s="26">
+      <c r="AK4" s="15">
         <v>30</v>
       </c>
-      <c r="AL4" s="26">
+      <c r="AL4" s="15">
         <v>31</v>
       </c>
-      <c r="AM4" s="26">
+      <c r="AM4" s="15">
         <v>32</v>
       </c>
-      <c r="AN4" s="26">
+      <c r="AN4" s="15">
         <v>33</v>
       </c>
-      <c r="AO4" s="26">
+      <c r="AO4" s="15">
         <v>34</v>
       </c>
-      <c r="AP4" s="26">
+      <c r="AP4" s="15">
         <v>35</v>
       </c>
-      <c r="AQ4" s="26">
+      <c r="AQ4" s="15">
         <v>36</v>
       </c>
-      <c r="AR4" s="26">
+      <c r="AR4" s="15">
         <v>37</v>
       </c>
-      <c r="AS4" s="26">
+      <c r="AS4" s="15">
         <v>38</v>
       </c>
-      <c r="AT4" s="26">
+      <c r="AT4" s="15">
         <v>39</v>
       </c>
-      <c r="AU4" s="26">
+      <c r="AU4" s="15">
         <v>40</v>
       </c>
-      <c r="AV4" s="26">
+      <c r="AV4" s="15">
         <v>41</v>
       </c>
-      <c r="AW4" s="26">
+      <c r="AW4" s="15">
         <v>42</v>
       </c>
-      <c r="AX4" s="26">
+      <c r="AX4" s="15">
         <v>43</v>
       </c>
-      <c r="AY4" s="26">
+      <c r="AY4" s="15">
         <v>44</v>
       </c>
-      <c r="AZ4" s="26">
+      <c r="AZ4" s="15">
         <v>45</v>
       </c>
-      <c r="BA4" s="26">
+      <c r="BA4" s="15">
         <v>46</v>
       </c>
-      <c r="BB4" s="26">
+      <c r="BB4" s="15">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:54" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="30">
-        <v>1</v>
-      </c>
-      <c r="D5" s="30">
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
         <v>3</v>
       </c>
-      <c r="E5" s="30">
-        <v>1</v>
-      </c>
-      <c r="F5" s="30">
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
         <v>3</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="30">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
         <v>7</v>
       </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30">
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
         <v>7</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="19">
         <v>4</v>
       </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30">
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
         <v>4</v>
       </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-      <c r="G7" s="28">
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="19">
         <v>5</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="19">
         <v>30</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="19">
         <v>5</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="19">
         <v>30</v>
       </c>
-      <c r="G8" s="28">
-        <f>SUM(G9:G18)/900%</f>
-        <v>0.55555555555555558</v>
+      <c r="G8" s="17">
+        <f>SUM(G9:G19)/900%</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="9" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="19">
         <v>5</v>
       </c>
-      <c r="D9" s="30">
-        <v>1</v>
-      </c>
-      <c r="E9" s="30">
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
         <v>5</v>
       </c>
-      <c r="F9" s="30">
-        <v>1</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="19">
         <v>6</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="19">
         <v>3</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="19">
         <v>6</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="19">
         <v>3</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="19">
         <v>9</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="19">
         <v>7</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="19">
         <v>9</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="19">
         <v>3</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="19">
         <v>16</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="19">
         <v>2</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="19">
         <v>10</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="19">
         <v>2</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19">
+        <v>18</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>18</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:54" ht="17" x14ac:dyDescent="0.4">
+      <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C14" s="19">
         <v>18</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D14" s="19">
         <v>3</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E14" s="19">
         <v>18</v>
       </c>
-      <c r="F13" s="30">
+      <c r="F14" s="19">
         <v>3</v>
       </c>
-      <c r="G13" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B14" s="36" t="s">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:54" ht="17" x14ac:dyDescent="0.4">
+      <c r="B15" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C15" s="19">
         <v>21</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D15" s="19">
         <v>3</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="28">
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B15" s="36" t="s">
+    <row r="16" spans="2:54" ht="17" x14ac:dyDescent="0.4">
+      <c r="B16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C16" s="19">
         <v>23</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D16" s="19">
         <v>3</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B16" s="36" t="s">
+    <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+      <c r="B17" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C17" s="19">
         <v>26</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D17" s="19">
         <v>3</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="B17" s="38" t="s">
+    <row r="18" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+      <c r="B18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C18" s="19">
         <v>29</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D18" s="19">
         <v>3</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="38" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C19" s="19">
         <v>32</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D19" s="19">
         <v>3</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="39" t="s">
+    <row r="20" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C20" s="25">
         <v>47</v>
       </c>
-      <c r="D19" s="30">
-        <v>1</v>
-      </c>
-      <c r="E19" s="30">
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
         <v>47</v>
       </c>
-      <c r="F19" s="30">
-        <v>1</v>
-      </c>
-      <c r="G19" s="28">
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="34" t="s">
+    <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="39" t="s">
+    <row r="22" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1934,7 +1957,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BB19">
+  <conditionalFormatting sqref="H5:BB20">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>

--- a/report/Gantt project planner1.xlsx
+++ b/report/Gantt project planner1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC02FE0-3618-4FB8-B5C6-BDF01CEB6C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30981B7-FD48-478F-BE14-4EBB0F5620DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -188,22 +188,16 @@
     <t>Improving stamp tool</t>
   </si>
   <si>
-    <t>Implementing universal mirror</t>
-  </si>
-  <si>
-    <t>Midterm submission</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Final submission</t>
   </si>
   <si>
     <t>Implementing Scissors tool</t>
   </si>
   <si>
-    <t>Implementing eraser</t>
+    <t>Midterm submission (code cleanup)</t>
+  </si>
+  <si>
+    <t>Debugging, testing, editing code</t>
   </si>
 </sst>
 </file>
@@ -217,6 +211,13 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -240,13 +241,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -387,7 +381,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,8 +423,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -610,13 +610,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
@@ -625,10 +658,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -667,8 +700,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -717,9 +751,6 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="8" xfId="3" applyBorder="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,9 +772,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -753,6 +781,30 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="19" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -790,9 +842,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
     <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -1189,40 +1242,41 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BB22"/>
+  <dimension ref="B1:DV20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7" style="20" customWidth="1"/>
-    <col min="6" max="6" width="9.08203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="9" style="19" customWidth="1"/>
+    <col min="5" max="5" width="7" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.08203125" style="19" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="6" customWidth="1"/>
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="27" width="2.83203125" style="1"/>
+    <col min="107" max="126" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:126" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="2:54" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:126" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1235,66 +1289,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="34"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="36"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="42"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
       <c r="AH2" s="13"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AI2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
     </row>
-    <row r="3" spans="2:54" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30" t="s">
+    <row r="3" spans="2:126" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="37" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="14">
@@ -1484,14 +1538,302 @@
         <f t="shared" si="0"/>
         <v>44739</v>
       </c>
+      <c r="BC3" s="14">
+        <f t="shared" ref="BC3" si="1">BB3+1</f>
+        <v>44740</v>
+      </c>
+      <c r="BD3" s="14">
+        <f t="shared" ref="BD3" si="2">BC3+1</f>
+        <v>44741</v>
+      </c>
+      <c r="BE3" s="14">
+        <f t="shared" ref="BE3" si="3">BD3+1</f>
+        <v>44742</v>
+      </c>
+      <c r="BF3" s="14">
+        <f t="shared" ref="BF3" si="4">BE3+1</f>
+        <v>44743</v>
+      </c>
+      <c r="BG3" s="14">
+        <f t="shared" ref="BG3" si="5">BF3+1</f>
+        <v>44744</v>
+      </c>
+      <c r="BH3" s="14">
+        <f t="shared" ref="BH3" si="6">BG3+1</f>
+        <v>44745</v>
+      </c>
+      <c r="BI3" s="14">
+        <f t="shared" ref="BI3" si="7">BH3+1</f>
+        <v>44746</v>
+      </c>
+      <c r="BJ3" s="14">
+        <f t="shared" ref="BJ3" si="8">BI3+1</f>
+        <v>44747</v>
+      </c>
+      <c r="BK3" s="14">
+        <f t="shared" ref="BK3" si="9">BJ3+1</f>
+        <v>44748</v>
+      </c>
+      <c r="BL3" s="14">
+        <f t="shared" ref="BL3" si="10">BK3+1</f>
+        <v>44749</v>
+      </c>
+      <c r="BM3" s="14">
+        <f t="shared" ref="BM3" si="11">BL3+1</f>
+        <v>44750</v>
+      </c>
+      <c r="BN3" s="14">
+        <f t="shared" ref="BN3" si="12">BM3+1</f>
+        <v>44751</v>
+      </c>
+      <c r="BO3" s="14">
+        <f t="shared" ref="BO3" si="13">BN3+1</f>
+        <v>44752</v>
+      </c>
+      <c r="BP3" s="14">
+        <f t="shared" ref="BP3" si="14">BO3+1</f>
+        <v>44753</v>
+      </c>
+      <c r="BQ3" s="14">
+        <f t="shared" ref="BQ3" si="15">BP3+1</f>
+        <v>44754</v>
+      </c>
+      <c r="BR3" s="14">
+        <f t="shared" ref="BR3" si="16">BQ3+1</f>
+        <v>44755</v>
+      </c>
+      <c r="BS3" s="14">
+        <f t="shared" ref="BS3" si="17">BR3+1</f>
+        <v>44756</v>
+      </c>
+      <c r="BT3" s="14">
+        <f t="shared" ref="BT3" si="18">BS3+1</f>
+        <v>44757</v>
+      </c>
+      <c r="BU3" s="14">
+        <f t="shared" ref="BU3" si="19">BT3+1</f>
+        <v>44758</v>
+      </c>
+      <c r="BV3" s="14">
+        <f t="shared" ref="BV3" si="20">BU3+1</f>
+        <v>44759</v>
+      </c>
+      <c r="BW3" s="14">
+        <f t="shared" ref="BW3" si="21">BV3+1</f>
+        <v>44760</v>
+      </c>
+      <c r="BX3" s="14">
+        <f t="shared" ref="BX3" si="22">BW3+1</f>
+        <v>44761</v>
+      </c>
+      <c r="BY3" s="14">
+        <f t="shared" ref="BY3" si="23">BX3+1</f>
+        <v>44762</v>
+      </c>
+      <c r="BZ3" s="14">
+        <f t="shared" ref="BZ3" si="24">BY3+1</f>
+        <v>44763</v>
+      </c>
+      <c r="CA3" s="14">
+        <f t="shared" ref="CA3" si="25">BZ3+1</f>
+        <v>44764</v>
+      </c>
+      <c r="CB3" s="14">
+        <f t="shared" ref="CB3" si="26">CA3+1</f>
+        <v>44765</v>
+      </c>
+      <c r="CC3" s="14">
+        <f t="shared" ref="CC3" si="27">CB3+1</f>
+        <v>44766</v>
+      </c>
+      <c r="CD3" s="14">
+        <f t="shared" ref="CD3" si="28">CC3+1</f>
+        <v>44767</v>
+      </c>
+      <c r="CE3" s="14">
+        <f t="shared" ref="CE3" si="29">CD3+1</f>
+        <v>44768</v>
+      </c>
+      <c r="CF3" s="14">
+        <f t="shared" ref="CF3" si="30">CE3+1</f>
+        <v>44769</v>
+      </c>
+      <c r="CG3" s="14">
+        <f t="shared" ref="CG3" si="31">CF3+1</f>
+        <v>44770</v>
+      </c>
+      <c r="CH3" s="14">
+        <f t="shared" ref="CH3" si="32">CG3+1</f>
+        <v>44771</v>
+      </c>
+      <c r="CI3" s="14">
+        <f t="shared" ref="CI3" si="33">CH3+1</f>
+        <v>44772</v>
+      </c>
+      <c r="CJ3" s="14">
+        <f t="shared" ref="CJ3" si="34">CI3+1</f>
+        <v>44773</v>
+      </c>
+      <c r="CK3" s="14">
+        <f t="shared" ref="CK3" si="35">CJ3+1</f>
+        <v>44774</v>
+      </c>
+      <c r="CL3" s="14">
+        <f t="shared" ref="CL3" si="36">CK3+1</f>
+        <v>44775</v>
+      </c>
+      <c r="CM3" s="14">
+        <f t="shared" ref="CM3" si="37">CL3+1</f>
+        <v>44776</v>
+      </c>
+      <c r="CN3" s="14">
+        <f t="shared" ref="CN3" si="38">CM3+1</f>
+        <v>44777</v>
+      </c>
+      <c r="CO3" s="14">
+        <f t="shared" ref="CO3" si="39">CN3+1</f>
+        <v>44778</v>
+      </c>
+      <c r="CP3" s="14">
+        <f t="shared" ref="CP3" si="40">CO3+1</f>
+        <v>44779</v>
+      </c>
+      <c r="CQ3" s="14">
+        <f t="shared" ref="CQ3" si="41">CP3+1</f>
+        <v>44780</v>
+      </c>
+      <c r="CR3" s="14">
+        <f t="shared" ref="CR3" si="42">CQ3+1</f>
+        <v>44781</v>
+      </c>
+      <c r="CS3" s="14">
+        <f t="shared" ref="CS3" si="43">CR3+1</f>
+        <v>44782</v>
+      </c>
+      <c r="CT3" s="14">
+        <f t="shared" ref="CT3" si="44">CS3+1</f>
+        <v>44783</v>
+      </c>
+      <c r="CU3" s="14">
+        <f t="shared" ref="CU3" si="45">CT3+1</f>
+        <v>44784</v>
+      </c>
+      <c r="CV3" s="14">
+        <f t="shared" ref="CV3" si="46">CU3+1</f>
+        <v>44785</v>
+      </c>
+      <c r="CW3" s="14">
+        <f t="shared" ref="CW3" si="47">CV3+1</f>
+        <v>44786</v>
+      </c>
+      <c r="CX3" s="14">
+        <f t="shared" ref="CX3" si="48">CW3+1</f>
+        <v>44787</v>
+      </c>
+      <c r="CY3" s="14">
+        <f t="shared" ref="CY3" si="49">CX3+1</f>
+        <v>44788</v>
+      </c>
+      <c r="CZ3" s="14">
+        <f t="shared" ref="CZ3" si="50">CY3+1</f>
+        <v>44789</v>
+      </c>
+      <c r="DA3" s="14">
+        <f t="shared" ref="DA3" si="51">CZ3+1</f>
+        <v>44790</v>
+      </c>
+      <c r="DB3" s="14">
+        <f t="shared" ref="DB3" si="52">DA3+1</f>
+        <v>44791</v>
+      </c>
+      <c r="DC3" s="14">
+        <f t="shared" ref="DC3" si="53">DB3+1</f>
+        <v>44792</v>
+      </c>
+      <c r="DD3" s="14">
+        <f t="shared" ref="DD3" si="54">DC3+1</f>
+        <v>44793</v>
+      </c>
+      <c r="DE3" s="14">
+        <f t="shared" ref="DE3" si="55">DD3+1</f>
+        <v>44794</v>
+      </c>
+      <c r="DF3" s="14">
+        <f t="shared" ref="DF3" si="56">DE3+1</f>
+        <v>44795</v>
+      </c>
+      <c r="DG3" s="14">
+        <f t="shared" ref="DG3" si="57">DF3+1</f>
+        <v>44796</v>
+      </c>
+      <c r="DH3" s="14">
+        <f t="shared" ref="DH3" si="58">DG3+1</f>
+        <v>44797</v>
+      </c>
+      <c r="DI3" s="14">
+        <f t="shared" ref="DI3" si="59">DH3+1</f>
+        <v>44798</v>
+      </c>
+      <c r="DJ3" s="14">
+        <f t="shared" ref="DJ3" si="60">DI3+1</f>
+        <v>44799</v>
+      </c>
+      <c r="DK3" s="14">
+        <f t="shared" ref="DK3" si="61">DJ3+1</f>
+        <v>44800</v>
+      </c>
+      <c r="DL3" s="14">
+        <f t="shared" ref="DL3" si="62">DK3+1</f>
+        <v>44801</v>
+      </c>
+      <c r="DM3" s="14">
+        <f t="shared" ref="DM3" si="63">DL3+1</f>
+        <v>44802</v>
+      </c>
+      <c r="DN3" s="14">
+        <f t="shared" ref="DN3" si="64">DM3+1</f>
+        <v>44803</v>
+      </c>
+      <c r="DO3" s="14">
+        <f t="shared" ref="DO3" si="65">DN3+1</f>
+        <v>44804</v>
+      </c>
+      <c r="DP3" s="14">
+        <f t="shared" ref="DP3" si="66">DO3+1</f>
+        <v>44805</v>
+      </c>
+      <c r="DQ3" s="14">
+        <f t="shared" ref="DQ3" si="67">DP3+1</f>
+        <v>44806</v>
+      </c>
+      <c r="DR3" s="14">
+        <f t="shared" ref="DR3" si="68">DQ3+1</f>
+        <v>44807</v>
+      </c>
+      <c r="DS3" s="14">
+        <f t="shared" ref="DS3" si="69">DR3+1</f>
+        <v>44808</v>
+      </c>
+      <c r="DT3" s="14">
+        <f t="shared" ref="DT3" si="70">DS3+1</f>
+        <v>44809</v>
+      </c>
+      <c r="DU3" s="14">
+        <f t="shared" ref="DU3" si="71">DT3+1</f>
+        <v>44810</v>
+      </c>
+      <c r="DV3" s="14">
+        <f t="shared" ref="DV3" si="72">DU3+1</f>
+        <v>44811</v>
+      </c>
     </row>
-    <row r="4" spans="2:54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+    <row r="4" spans="2:126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
       <c r="H4" s="15">
         <v>1</v>
       </c>
@@ -1633,314 +1975,525 @@
       <c r="BB4" s="15">
         <v>47</v>
       </c>
+      <c r="BC4" s="15">
+        <v>48</v>
+      </c>
+      <c r="BD4" s="15">
+        <v>49</v>
+      </c>
+      <c r="BE4" s="15">
+        <v>50</v>
+      </c>
+      <c r="BF4" s="15">
+        <v>51</v>
+      </c>
+      <c r="BG4" s="15">
+        <v>52</v>
+      </c>
+      <c r="BH4" s="15">
+        <v>53</v>
+      </c>
+      <c r="BI4" s="15">
+        <v>54</v>
+      </c>
+      <c r="BJ4" s="15">
+        <v>55</v>
+      </c>
+      <c r="BK4" s="15">
+        <v>56</v>
+      </c>
+      <c r="BL4" s="15">
+        <v>57</v>
+      </c>
+      <c r="BM4" s="15">
+        <v>58</v>
+      </c>
+      <c r="BN4" s="15">
+        <v>59</v>
+      </c>
+      <c r="BO4" s="15">
+        <v>60</v>
+      </c>
+      <c r="BP4" s="15">
+        <v>61</v>
+      </c>
+      <c r="BQ4" s="15">
+        <v>62</v>
+      </c>
+      <c r="BR4" s="15">
+        <v>63</v>
+      </c>
+      <c r="BS4" s="15">
+        <v>64</v>
+      </c>
+      <c r="BT4" s="15">
+        <v>65</v>
+      </c>
+      <c r="BU4" s="15">
+        <v>66</v>
+      </c>
+      <c r="BV4" s="15">
+        <v>67</v>
+      </c>
+      <c r="BW4" s="15">
+        <v>68</v>
+      </c>
+      <c r="BX4" s="15">
+        <v>69</v>
+      </c>
+      <c r="BY4" s="15">
+        <v>70</v>
+      </c>
+      <c r="BZ4" s="15">
+        <v>71</v>
+      </c>
+      <c r="CA4" s="15">
+        <v>72</v>
+      </c>
+      <c r="CB4" s="15">
+        <v>73</v>
+      </c>
+      <c r="CC4" s="15">
+        <v>74</v>
+      </c>
+      <c r="CD4" s="15">
+        <v>75</v>
+      </c>
+      <c r="CE4" s="15">
+        <v>76</v>
+      </c>
+      <c r="CF4" s="15">
+        <v>77</v>
+      </c>
+      <c r="CG4" s="15">
+        <v>78</v>
+      </c>
+      <c r="CH4" s="15">
+        <v>79</v>
+      </c>
+      <c r="CI4" s="15">
+        <v>80</v>
+      </c>
+      <c r="CJ4" s="15">
+        <v>81</v>
+      </c>
+      <c r="CK4" s="15">
+        <v>82</v>
+      </c>
+      <c r="CL4" s="15">
+        <v>83</v>
+      </c>
+      <c r="CM4" s="15">
+        <v>84</v>
+      </c>
+      <c r="CN4" s="15">
+        <v>85</v>
+      </c>
+      <c r="CO4" s="15">
+        <v>86</v>
+      </c>
+      <c r="CP4" s="15">
+        <v>87</v>
+      </c>
+      <c r="CQ4" s="15">
+        <v>88</v>
+      </c>
+      <c r="CR4" s="15">
+        <v>89</v>
+      </c>
+      <c r="CS4" s="15">
+        <v>90</v>
+      </c>
+      <c r="CT4" s="15">
+        <v>91</v>
+      </c>
+      <c r="CU4" s="15">
+        <v>92</v>
+      </c>
+      <c r="CV4" s="15">
+        <v>93</v>
+      </c>
+      <c r="CW4" s="15">
+        <v>94</v>
+      </c>
+      <c r="CX4" s="15">
+        <v>95</v>
+      </c>
+      <c r="CY4" s="15">
+        <v>96</v>
+      </c>
+      <c r="CZ4" s="15">
+        <v>97</v>
+      </c>
+      <c r="DA4" s="15">
+        <v>98</v>
+      </c>
+      <c r="DB4" s="15">
+        <v>99</v>
+      </c>
+      <c r="DC4" s="15">
+        <v>100</v>
+      </c>
+      <c r="DD4" s="15">
+        <v>101</v>
+      </c>
+      <c r="DE4" s="15">
+        <v>102</v>
+      </c>
+      <c r="DF4" s="15">
+        <v>103</v>
+      </c>
+      <c r="DG4" s="15">
+        <v>104</v>
+      </c>
+      <c r="DH4" s="15">
+        <v>105</v>
+      </c>
+      <c r="DI4" s="15">
+        <v>106</v>
+      </c>
+      <c r="DJ4" s="15">
+        <v>107</v>
+      </c>
+      <c r="DK4" s="15">
+        <v>108</v>
+      </c>
+      <c r="DL4" s="15">
+        <v>109</v>
+      </c>
+      <c r="DM4" s="15">
+        <v>110</v>
+      </c>
+      <c r="DN4" s="15">
+        <v>111</v>
+      </c>
+      <c r="DO4" s="15">
+        <v>112</v>
+      </c>
+      <c r="DP4" s="15">
+        <v>113</v>
+      </c>
+      <c r="DQ4" s="15">
+        <v>114</v>
+      </c>
+      <c r="DR4" s="15">
+        <v>115</v>
+      </c>
+      <c r="DS4" s="15">
+        <v>116</v>
+      </c>
+      <c r="DT4" s="15">
+        <v>117</v>
+      </c>
+      <c r="DU4" s="15">
+        <v>118</v>
+      </c>
+      <c r="DV4" s="15">
+        <v>119</v>
+      </c>
     </row>
-    <row r="5" spans="2:54" ht="17" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="21" t="s">
+    <row r="5" spans="2:126" ht="17" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>3</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>3</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="2:126" ht="17" x14ac:dyDescent="0.4">
+      <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>7</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>1</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>7</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B7" s="21" t="s">
+    <row r="7" spans="2:126" ht="17" x14ac:dyDescent="0.4">
+      <c r="B7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>4</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>4</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="23">
         <v>5</v>
       </c>
-      <c r="D8" s="19">
-        <v>30</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="18">
+        <v>43</v>
+      </c>
+      <c r="E8" s="18">
         <v>5</v>
       </c>
-      <c r="F8" s="19">
-        <v>30</v>
-      </c>
-      <c r="G8" s="17">
-        <f>SUM(G9:G19)/900%</f>
-        <v>0.66666666666666663</v>
+      <c r="F8" s="18">
+        <v>43</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>5</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>5</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>1</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>6</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>3</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="18">
         <v>6</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="18">
         <v>3</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B11" s="21" t="s">
+    <row r="11" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>9</v>
       </c>
-      <c r="D11" s="19">
-        <v>7</v>
-      </c>
-      <c r="E11" s="19">
+      <c r="D11" s="18">
+        <v>14</v>
+      </c>
+      <c r="E11" s="18">
         <v>9</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <v>3</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B12" s="21" t="s">
+    <row r="12" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="19">
-        <v>16</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="18">
+        <v>23</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18">
+        <v>12</v>
+      </c>
+      <c r="F12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
-        <v>10</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="19">
-        <v>18</v>
-      </c>
-      <c r="D13" s="19">
+    <row r="13" spans="2:126" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18">
+        <v>28</v>
+      </c>
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>15</v>
+      </c>
+      <c r="F13" s="18">
+        <v>3</v>
+      </c>
+      <c r="G13" s="16">
         <v>1</v>
       </c>
-      <c r="E13" s="19">
-        <v>18</v>
-      </c>
-      <c r="F13" s="19">
+    </row>
+    <row r="14" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="18">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18">
+        <v>3</v>
+      </c>
+      <c r="E14" s="18">
+        <v>21</v>
+      </c>
+      <c r="F14" s="18">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16">
         <v>1</v>
       </c>
-      <c r="G13" s="17">
+    </row>
+    <row r="15" spans="2:126" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="18">
+        <v>34</v>
+      </c>
+      <c r="D15" s="18">
+        <v>3</v>
+      </c>
+      <c r="E15" s="18">
+        <v>27</v>
+      </c>
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="19">
-        <v>18</v>
-      </c>
-      <c r="D14" s="19">
-        <v>3</v>
-      </c>
-      <c r="E14" s="19">
-        <v>18</v>
-      </c>
-      <c r="F14" s="19">
-        <v>3</v>
-      </c>
-      <c r="G14" s="17">
+    <row r="16" spans="2:126" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="23">
+        <v>37</v>
+      </c>
+      <c r="D16" s="18">
+        <v>11</v>
+      </c>
+      <c r="E16" s="18">
+        <v>31</v>
+      </c>
+      <c r="F16" s="18">
+        <v>17</v>
+      </c>
+      <c r="G16" s="16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="19">
-        <v>21</v>
-      </c>
-      <c r="D15" s="19">
-        <v>3</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:54" ht="17" x14ac:dyDescent="0.4">
-      <c r="B16" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="19">
-        <v>23</v>
-      </c>
-      <c r="D16" s="19">
-        <v>3</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="B17" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="19">
-        <v>26</v>
-      </c>
-      <c r="D17" s="19">
-        <v>3</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17">
+      <c r="B17" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18">
+        <v>48</v>
+      </c>
+      <c r="D17" s="18">
+        <v>7</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="B18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="19">
-        <v>29</v>
-      </c>
-      <c r="D18" s="19">
-        <v>3</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17"/>
+      <c r="B18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="18">
+        <v>55</v>
+      </c>
+      <c r="D18" s="18">
+        <v>30</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="19">
-        <v>32</v>
-      </c>
-      <c r="D19" s="19">
-        <v>3</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17">
+        <v>27</v>
+      </c>
+      <c r="C19" s="18">
+        <v>85</v>
+      </c>
+      <c r="D19" s="18">
+        <v>33</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="25">
-        <v>47</v>
-      </c>
-      <c r="D20" s="19">
+    <row r="20" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="18">
+        <v>118</v>
+      </c>
+      <c r="D20" s="18">
         <v>1</v>
       </c>
-      <c r="E20" s="19">
-        <v>47</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="16">
         <v>1</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="27" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2510,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BB20">
+  <conditionalFormatting sqref="H5:DV20">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -1983,7 +2536,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:BB4">
+  <conditionalFormatting sqref="H4:DV4">
     <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
@@ -1998,7 +2551,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3:BB3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3:DV3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
@@ -2010,7 +2563,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="29" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/report/Gantt project planner1.xlsx
+++ b/report/Gantt project planner1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30981B7-FD48-478F-BE14-4EBB0F5620DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0C43D7-6476-4E53-8A06-66A66DEAC036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Debugging, testing, editing code</t>
+  </si>
+  <si>
+    <t>Fixing scissors tool</t>
   </si>
 </sst>
 </file>
@@ -614,17 +617,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -643,6 +635,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -702,7 +707,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,9 +792,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -799,7 +801,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="19" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="8" xfId="11" applyFill="1" applyBorder="1">
@@ -840,6 +842,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1242,13 +1250,13 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DV20"/>
+  <dimension ref="B1:DV21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1289,66 +1297,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="39"/>
       <c r="U2" s="11"/>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="42"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="41"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
       <c r="AH2" s="13"/>
-      <c r="AI2" s="34" t="s">
+      <c r="AI2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
     </row>
     <row r="3" spans="2:126" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="14">
@@ -1828,12 +1836,12 @@
       </c>
     </row>
     <row r="4" spans="2:126" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="15">
         <v>1</v>
       </c>
@@ -2233,7 +2241,7 @@
       </c>
     </row>
     <row r="7" spans="2:126" ht="17" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="18">
@@ -2253,7 +2261,7 @@
       </c>
     </row>
     <row r="8" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="23">
@@ -2273,7 +2281,7 @@
       </c>
     </row>
     <row r="9" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="18">
@@ -2293,7 +2301,7 @@
       </c>
     </row>
     <row r="10" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="18">
@@ -2313,7 +2321,7 @@
       </c>
     </row>
     <row r="11" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="18">
@@ -2333,7 +2341,7 @@
       </c>
     </row>
     <row r="12" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="18">
@@ -2353,7 +2361,7 @@
       </c>
     </row>
     <row r="13" spans="2:126" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="18">
@@ -2373,7 +2381,7 @@
       </c>
     </row>
     <row r="14" spans="2:126" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="18">
@@ -2393,7 +2401,7 @@
       </c>
     </row>
     <row r="15" spans="2:126" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="18">
@@ -2412,8 +2420,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:126" ht="34.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:126" ht="34" x14ac:dyDescent="0.4">
+      <c r="B16" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="23">
@@ -2433,14 +2441,14 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="B17" s="27" t="s">
-        <v>22</v>
+      <c r="B17" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="18">
         <v>48</v>
       </c>
       <c r="D17" s="18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -2449,14 +2457,14 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="17" x14ac:dyDescent="0.4">
-      <c r="B18" s="24" t="s">
-        <v>21</v>
+      <c r="B18" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="18">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2464,15 +2472,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="26" t="s">
-        <v>27</v>
+    <row r="19" spans="2:7" ht="17" x14ac:dyDescent="0.4">
+      <c r="B19" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="18">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="D19" s="18">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -2481,18 +2489,34 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="25" t="s">
-        <v>24</v>
+      <c r="B20" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C20" s="18">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D20" s="18">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="18">
+        <v>118</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="16">
         <v>1</v>
       </c>
     </row>
@@ -2510,7 +2534,7 @@
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:DV20">
+  <conditionalFormatting sqref="H5:DV21">
     <cfRule type="expression" dxfId="8" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
